--- a/public/data/编码初稿V1.0.xlsx
+++ b/public/data/编码初稿V1.0.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="31">
   <si>
     <t>学生</t>
   </si>
@@ -124,10 +124,6 @@
   </si>
   <si>
     <t>位数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登录号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -160,7 +156,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2位流水号（班号）</t>
+    <t>2位作为班号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1位属性+2位流水号（班号）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -324,9 +328,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,14 +337,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -649,49 +662,49 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="43.875" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="16.125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="12"/>
-      <c r="I1" s="5" t="s">
+      <c r="F1" s="10"/>
+      <c r="I1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="5"/>
+      <c r="J1" s="9"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="8"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
       <c r="I2" s="1">
         <v>1</v>
       </c>
@@ -700,16 +713,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="8"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
       <c r="I3" s="3">
         <v>2</v>
       </c>
@@ -718,14 +731,14 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="8"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="7"/>
       <c r="I4" s="3">
         <v>3</v>
       </c>
@@ -734,16 +747,18 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B5" s="8">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13">
+        <v>3</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="7"/>
       <c r="I5" s="3">
         <v>4</v>
       </c>
@@ -752,14 +767,14 @@
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="8"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="7"/>
       <c r="I6" s="3">
         <v>5</v>
       </c>
@@ -768,22 +783,22 @@
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="12"/>
       <c r="I7" s="3">
         <v>6</v>
       </c>
@@ -792,14 +807,14 @@
       </c>
     </row>
     <row r="8" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="I8" s="3">
         <v>7</v>
       </c>
@@ -808,16 +823,16 @@
       </c>
     </row>
     <row r="9" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="A9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
       <c r="I9" s="3">
         <v>8</v>
       </c>
@@ -826,14 +841,14 @@
       </c>
     </row>
     <row r="10" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
       <c r="I10" s="3">
         <v>9</v>
       </c>
@@ -842,16 +857,16 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
       <c r="I11" s="3"/>
       <c r="J11" s="4"/>
     </row>
